--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>Year</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Obv: With mint letter</t>
   </si>
 </sst>
 </file>
@@ -841,10 +847,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,6 +922,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -925,6 +939,14 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -932,14 +954,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -962,9 +976,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1235,1130 +1249,1196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="48.6328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="9" customWidth="1"/>
-    <col min="5" max="9" width="12.453125" style="9" customWidth="1"/>
-    <col min="10" max="14" width="3.81640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
+    <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="3"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2006</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18" t="str">
-        <f t="shared" ref="O3:O24" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17" t="str">
+        <f t="shared" ref="P3:P24" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2007</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18" t="str">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>2007</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18" t="str">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>2008</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18" t="str">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>2009</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="str">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>2009</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="str">
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>2010</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18" t="str">
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>2011</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18" t="str">
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>2012</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="18" t="str">
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>2012</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="18" t="str">
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>2013</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18" t="str">
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>2013</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18" t="str">
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>2014</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18" t="str">
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>2015</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="18" t="str">
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
         <v>2015</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="18" t="str">
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
         <v>2015</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="18" t="str">
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
         <v>2016</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18" t="str">
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
         <v>2017</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18" t="str">
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
         <v>2018</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
         <v>1</v>
       </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="18" t="str">
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
         <v>2018</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
         <v>1</v>
       </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="18" t="str">
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
         <v>2019</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
         <v>1</v>
       </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="18" t="str">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
         <v>2019</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
         <v>1</v>
       </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="18" t="str">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2367,13 +2447,13 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:N24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+  <conditionalFormatting sqref="K3:O24">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2396,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2411,79 +2491,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -895,6 +895,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,6 +908,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,15 +931,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -939,14 +939,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -954,6 +946,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,9 +976,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1253,51 +1253,51 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
-    <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="24.85546875" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.42578125" style="8" customWidth="1"/>
+    <col min="11" max="15" width="3.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1339,14 +1339,14 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2006</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1390,17 +1390,17 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2007</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1441,15 +1441,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2007</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1490,17 +1490,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>2008</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1541,17 +1541,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2009</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1592,15 +1592,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>2009</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1641,17 +1641,17 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2010</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1692,17 +1692,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>2011</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1743,17 +1743,17 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2012</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1794,15 +1794,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>2012</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1843,15 +1843,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>2013</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1892,17 +1892,17 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>2013</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1943,17 +1943,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2014</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1994,17 +1994,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>2015</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2045,15 +2045,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2094,15 +2094,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2015</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2143,17 +2143,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2016</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2194,17 +2194,17 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>2017</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2245,15 +2245,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>2018</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2294,17 +2294,17 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>2018</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -2345,15 +2345,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>2019</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2394,15 +2394,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>2019</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="19" t="s">
         <v>144</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -2452,7 +2452,7 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:O24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2483,14 +2483,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
   <si>
     <t>Year</t>
   </si>
@@ -628,6 +628,12 @@
   </si>
   <si>
     <t>Obv: With mint letter</t>
+  </si>
+  <si>
+    <t>Brandenburg's Sanssouci Palace, Potsdam</t>
+  </si>
+  <si>
+    <t>50 years since the Kniefall von Warschau</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -976,9 +990,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1247,27 +1261,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="24.85546875" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.42578125" style="8" customWidth="1"/>
-    <col min="11" max="15" width="3.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
+    <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1309,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
@@ -1339,7 +1353,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2006</v>
       </c>
@@ -1386,11 +1400,11 @@
         <v>0</v>
       </c>
       <c r="P3" s="17" t="str">
-        <f t="shared" ref="P3:P24" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="P3:P22" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-"),AND(O3&gt;1,O3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>2007</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>2007</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>2008</v>
       </c>
@@ -1541,7 +1555,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>2009</v>
       </c>
@@ -1592,7 +1606,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>2009</v>
       </c>
@@ -1641,7 +1655,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2010</v>
       </c>
@@ -1692,7 +1706,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2011</v>
       </c>
@@ -1743,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>2012</v>
       </c>
@@ -1794,7 +1808,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2012</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>2013</v>
       </c>
@@ -1892,7 +1906,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2013</v>
       </c>
@@ -1943,7 +1957,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>2014</v>
       </c>
@@ -1994,7 +2008,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2015</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
@@ -2094,7 +2108,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2015</v>
       </c>
@@ -2143,7 +2157,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>2016</v>
       </c>
@@ -2194,7 +2208,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2017</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>2018</v>
       </c>
@@ -2294,7 +2308,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>2018</v>
       </c>
@@ -2345,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>2019</v>
       </c>
@@ -2390,11 +2404,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2019</v>
       </c>
@@ -2439,7 +2453,87 @@
         <v>0</v>
       </c>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(K24&gt;1,K24&lt;&gt;"-"),AND(L24&gt;1,L24&lt;&gt;"-"),AND(M24&gt;1,M24&lt;&gt;"-"),AND(N24&gt;1,N24&lt;&gt;"-"),AND(O24&gt;1,O24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="17" t="str">
+        <f>IF(OR(AND(K25&gt;1,K25&lt;&gt;"-"),AND(L25&gt;1,L25&lt;&gt;"-"),AND(M25&gt;1,M25&lt;&gt;"-"),AND(N25&gt;1,N25&lt;&gt;"-"),AND(O25&gt;1,O25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17" t="str">
+        <f>IF(OR(AND(K26&gt;1,K26&lt;&gt;"-"),AND(L26&gt;1,L26&lt;&gt;"-"),AND(M26&gt;1,M26&lt;&gt;"-"),AND(N26&gt;1,N26&lt;&gt;"-"),AND(O26&gt;1,O26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2451,9 +2545,24 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:O24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="K3:O25">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:O26">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2483,14 +2592,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2512,7 +2621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2523,7 +2632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2534,7 +2643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2545,7 +2654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2556,7 +2665,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -945,14 +945,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -960,6 +952,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -990,9 +990,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1267,21 +1267,21 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
-    <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
-    <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="24.85546875" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.42578125" style="8" customWidth="1"/>
+    <col min="11" max="15" width="3.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2006</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2007</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2007</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>2008</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2009</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>2009</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2010</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>2011</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2012</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>2012</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>2013</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>2013</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2014</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>2015</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>2015</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2016</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>2017</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>2018</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>2018</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>2019</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>2019</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2020</v>
       </c>
@@ -2482,23 +2482,23 @@
         <v>0</v>
       </c>
       <c r="L25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="17" t="str">
         <f>IF(OR(AND(K25&gt;1,K25&lt;&gt;"-"),AND(L25&gt;1,L25&lt;&gt;"-"),AND(M25&gt;1,M25&lt;&gt;"-"),AND(N25&gt;1,N25&lt;&gt;"-"),AND(O25&gt;1,O25&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>2020</v>
       </c>
@@ -2561,7 +2561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:O26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2592,14 +2592,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD1C88-DDE4-46C5-95AA-7D48D32AFA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="150">
   <si>
     <t>Year</t>
   </si>
@@ -634,12 +635,21 @@
   </si>
   <si>
     <t>50 years since the Kniefall von Warschau</t>
+  </si>
+  <si>
+    <t>6.070.000</t>
+  </si>
+  <si>
+    <t>6.370.000</t>
+  </si>
+  <si>
+    <t>7.270.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,7 +951,7 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -983,16 +993,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1260,14 +1270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="16" ySplit="2" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2473,11 +2483,21 @@
       <c r="E25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="K25" s="7">
         <v>0</v>
       </c>
@@ -2512,11 +2532,21 @@
       <c r="E26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="K26" s="7">
         <v>0</v>
       </c>
@@ -2582,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2678,12 +2708,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD1C88-DDE4-46C5-95AA-7D48D32AFA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB389A18-B495-4175-AEDC-246C882E388D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -194,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="188">
   <si>
     <t>Year</t>
   </si>
@@ -644,6 +653,120 @@
   </si>
   <si>
     <t>7.270.000</t>
+  </si>
+  <si>
+    <t>Saxony-Anhalt, Cathedral of Magdeburg</t>
+  </si>
+  <si>
+    <t>Thüringen, Wartburg Castle in Eisenach</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Hamburg, The Elbphilharmonie</t>
+  </si>
+  <si>
+    <t>1275th Anniversary - Birth of Charlemagne</t>
+  </si>
+  <si>
+    <t>6.110.200</t>
+  </si>
+  <si>
+    <t>6.402.800</t>
+  </si>
+  <si>
+    <t>7.301.900</t>
+  </si>
+  <si>
+    <t>4.302.000</t>
+  </si>
+  <si>
+    <t>6.402.000</t>
+  </si>
+  <si>
+    <t>6.090.100</t>
+  </si>
+  <si>
+    <t>3.453.000</t>
+  </si>
+  <si>
+    <t>6.384.400</t>
+  </si>
+  <si>
+    <t>3.623.000</t>
+  </si>
+  <si>
+    <t>7.283.300</t>
+  </si>
+  <si>
+    <t>4.133.000</t>
+  </si>
+  <si>
+    <t>4.283.700</t>
+  </si>
+  <si>
+    <t>2.433.000</t>
+  </si>
+  <si>
+    <t>6.383.400</t>
+  </si>
+  <si>
+    <t>6.075.600</t>
+  </si>
+  <si>
+    <t>4.054.000</t>
+  </si>
+  <si>
+    <t>6.371.300</t>
+  </si>
+  <si>
+    <t>4.254.000</t>
+  </si>
+  <si>
+    <t>7.270.300</t>
+  </si>
+  <si>
+    <t>4.854.000</t>
+  </si>
+  <si>
+    <t>4.270.600</t>
+  </si>
+  <si>
+    <t>2.854.000</t>
+  </si>
+  <si>
+    <t>6.370.400</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern, Königstuhl</t>
+  </si>
+  <si>
+    <t>175th Anniversary - Constitution of St. Paul's Church</t>
+  </si>
+  <si>
+    <t>6.061.260</t>
+  </si>
+  <si>
+    <t>6.042.000</t>
+  </si>
+  <si>
+    <t>6.361.260</t>
+  </si>
+  <si>
+    <t>6.342.000</t>
+  </si>
+  <si>
+    <t>7.261.260</t>
+  </si>
+  <si>
+    <t>7.242.000</t>
+  </si>
+  <si>
+    <t>4.261.260</t>
+  </si>
+  <si>
+    <t>4.242.000</t>
   </si>
 </sst>
 </file>
@@ -953,15 +1076,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -978,6 +1100,39 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,9 +1155,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1271,27 +1426,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="24.85546875" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.42578125" style="8" customWidth="1"/>
-    <col min="11" max="15" width="3.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="3" max="5" width="24.81640625" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.453125" style="8" customWidth="1"/>
+    <col min="11" max="15" width="3.81640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1474,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
@@ -1363,7 +1518,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2006</v>
       </c>
@@ -1414,7 +1569,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>2007</v>
       </c>
@@ -1465,7 +1620,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>2007</v>
       </c>
@@ -1498,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
@@ -1514,7 +1669,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>2008</v>
       </c>
@@ -1565,7 +1720,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>2009</v>
       </c>
@@ -1600,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1616,7 +1771,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>2009</v>
       </c>
@@ -1649,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1658,14 +1813,14 @@
         <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2010</v>
       </c>
@@ -1700,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1709,14 +1864,14 @@
         <v>0</v>
       </c>
       <c r="O9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2011</v>
       </c>
@@ -1748,7 +1903,7 @@
         <v>59</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1760,14 +1915,14 @@
         <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>2012</v>
       </c>
@@ -1799,7 +1954,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1818,7 +1973,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2012</v>
       </c>
@@ -1848,13 +2003,13 @@
         <v>67</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -1867,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>2013</v>
       </c>
@@ -1916,7 +2071,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2013</v>
       </c>
@@ -1967,7 +2122,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>2014</v>
       </c>
@@ -2018,7 +2173,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2015</v>
       </c>
@@ -2050,7 +2205,7 @@
         <v>83</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
@@ -2069,7 +2224,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>2015</v>
       </c>
@@ -2118,7 +2273,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2015</v>
       </c>
@@ -2148,7 +2303,7 @@
         <v>91</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
@@ -2167,7 +2322,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>2016</v>
       </c>
@@ -2218,7 +2373,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2017</v>
       </c>
@@ -2250,7 +2405,7 @@
         <v>99</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7">
         <v>0</v>
@@ -2269,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>2018</v>
       </c>
@@ -2299,7 +2454,7 @@
         <v>103</v>
       </c>
       <c r="K21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
@@ -2315,10 +2470,10 @@
       </c>
       <c r="P21" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>2018</v>
       </c>
@@ -2369,7 +2524,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>2019</v>
       </c>
@@ -2399,7 +2554,7 @@
         <v>111</v>
       </c>
       <c r="K23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7">
         <v>1</v>
@@ -2418,7 +2573,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2019</v>
       </c>
@@ -2448,7 +2603,7 @@
         <v>118</v>
       </c>
       <c r="K24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
@@ -2460,14 +2615,14 @@
         <v>0</v>
       </c>
       <c r="O24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="17" t="str">
         <f>IF(OR(AND(K24&gt;1,K24&lt;&gt;"-"),AND(L24&gt;1,L24&lt;&gt;"-"),AND(M24&gt;1,M24&lt;&gt;"-"),AND(N24&gt;1,N24&lt;&gt;"-"),AND(O24&gt;1,O24&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>2020</v>
       </c>
@@ -2499,7 +2654,7 @@
         <v>111</v>
       </c>
       <c r="K25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
         <v>1</v>
@@ -2518,7 +2673,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>2020</v>
       </c>
@@ -2564,6 +2719,357 @@
       </c>
       <c r="P26" s="17" t="str">
         <f>IF(OR(AND(K26&gt;1,K26&lt;&gt;"-"),AND(L26&gt;1,L26&lt;&gt;"-"),AND(M26&gt;1,M26&lt;&gt;"-"),AND(N26&gt;1,N26&lt;&gt;"-"),AND(O26&gt;1,O26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17" t="str">
+        <f>IF(OR(AND(K27&gt;1,K27&lt;&gt;"-"),AND(L27&gt;1,L27&lt;&gt;"-"),AND(M27&gt;1,M27&lt;&gt;"-"),AND(N27&gt;1,N27&lt;&gt;"-"),AND(O27&gt;1,O27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17" t="str">
+        <f>IF(OR(AND(K28&gt;1,K28&lt;&gt;"-"),AND(L28&gt;1,L28&lt;&gt;"-"),AND(M28&gt;1,M28&lt;&gt;"-"),AND(N28&gt;1,N28&lt;&gt;"-"),AND(O28&gt;1,O28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17" t="str">
+        <f t="shared" ref="P29:P31" si="1">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17" t="str">
+        <f t="shared" ref="P32:P33" si="2">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2576,8 +3082,68 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:O25">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:O26">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:O27 K29:O29 K31:O31">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:O28 K30:O30">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:O33">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2590,9 +3156,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:O26">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+  <conditionalFormatting sqref="K32:O32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2619,17 +3185,17 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +3206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2651,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2662,7 +3228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2673,7 +3239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2684,7 +3250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2695,7 +3261,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>

--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB389A18-B495-4175-AEDC-246C882E388D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109ED6A0-731A-4ED6-A183-E415F918732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -767,6 +764,9 @@
   </si>
   <si>
     <t>4.242.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1078,6 +1078,15 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1125,15 +1134,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1155,9 +1155,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1432,7 +1432,7 @@
       <pane xSplit="16" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="28"/>
       <c r="K1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
@@ -1478,43 +1478,43 @@
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -1523,31 +1523,31 @@
         <v>2006</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
@@ -1574,31 +1574,31 @@
         <v>2007</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
@@ -1625,29 +1625,29 @@
         <v>2007</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
@@ -1674,31 +1674,31 @@
         <v>2008</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D6" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
@@ -1725,31 +1725,31 @@
         <v>2009</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
@@ -1776,29 +1776,29 @@
         <v>2009</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
@@ -1825,31 +1825,31 @@
         <v>2010</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
@@ -1876,31 +1876,31 @@
         <v>2011</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1927,31 +1927,31 @@
         <v>2012</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
@@ -1978,29 +1978,29 @@
         <v>2012</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="J12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -2027,29 +2027,29 @@
         <v>2013</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
@@ -2076,31 +2076,31 @@
         <v>2013</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="J14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
@@ -2127,31 +2127,31 @@
         <v>2014</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="7">
         <v>0</v>
@@ -2178,31 +2178,31 @@
         <v>2015</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="J16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -2229,29 +2229,29 @@
         <v>2015</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="J17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -2278,29 +2278,29 @@
         <v>2015</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="J18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7">
         <v>1</v>
@@ -2327,31 +2327,31 @@
         <v>2016</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="J19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>
@@ -2378,31 +2378,31 @@
         <v>2017</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="J20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7">
         <v>1</v>
@@ -2429,29 +2429,29 @@
         <v>2018</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="J21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7">
         <v>2</v>
@@ -2478,31 +2478,31 @@
         <v>2018</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7">
         <v>0</v>
@@ -2529,29 +2529,29 @@
         <v>2019</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="J23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7">
         <v>1</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f>IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="P23:P28" si="1">IF(OR(AND(K23&gt;1,K23&lt;&gt;"-"),AND(L23&gt;1,L23&lt;&gt;"-"),AND(M23&gt;1,M23&lt;&gt;"-"),AND(N23&gt;1,N23&lt;&gt;"-"),AND(O23&gt;1,O23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2578,29 +2578,29 @@
         <v>2019</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="17" t="str">
-        <f>IF(OR(AND(K24&gt;1,K24&lt;&gt;"-"),AND(L24&gt;1,L24&lt;&gt;"-"),AND(M24&gt;1,M24&lt;&gt;"-"),AND(N24&gt;1,N24&lt;&gt;"-"),AND(O24&gt;1,O24&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2627,31 +2627,31 @@
         <v>2020</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="J25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="17" t="str">
-        <f>IF(OR(AND(K25&gt;1,K25&lt;&gt;"-"),AND(L25&gt;1,L25&lt;&gt;"-"),AND(M25&gt;1,M25&lt;&gt;"-"),AND(N25&gt;1,N25&lt;&gt;"-"),AND(O25&gt;1,O25&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2678,29 +2678,29 @@
         <v>2020</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="I26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="17" t="str">
-        <f>IF(OR(AND(K26&gt;1,K26&lt;&gt;"-"),AND(L26&gt;1,L26&lt;&gt;"-"),AND(M26&gt;1,M26&lt;&gt;"-"),AND(N26&gt;1,N26&lt;&gt;"-"),AND(O26&gt;1,O26&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2727,32 +2727,32 @@
         <v>2021</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="K27" s="7">
         <v>0</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="17" t="str">
-        <f>IF(OR(AND(K27&gt;1,K27&lt;&gt;"-"),AND(L27&gt;1,L27&lt;&gt;"-"),AND(M27&gt;1,M27&lt;&gt;"-"),AND(N27&gt;1,N27&lt;&gt;"-"),AND(O27&gt;1,O27&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2778,31 +2778,31 @@
         <v>2022</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="17" t="str">
-        <f>IF(OR(AND(K28&gt;1,K28&lt;&gt;"-"),AND(L28&gt;1,L28&lt;&gt;"-"),AND(M28&gt;1,M28&lt;&gt;"-"),AND(N28&gt;1,N28&lt;&gt;"-"),AND(O28&gt;1,O28&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2829,29 +2829,29 @@
         <v>2022</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="17" t="str">
-        <f t="shared" ref="P29:P31" si="1">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="P29:P31" si="2">IF(OR(AND(K29&gt;1,K29&lt;&gt;"-"),AND(L29&gt;1,L29&lt;&gt;"-"),AND(M29&gt;1,M29&lt;&gt;"-"),AND(N29&gt;1,N29&lt;&gt;"-"),AND(O29&gt;1,O29&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2878,31 +2878,31 @@
         <v>2023</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2929,29 +2929,29 @@
         <v>2023</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2978,31 +2978,31 @@
         <v>2024</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="17" t="str">
-        <f t="shared" ref="P32:P33" si="2">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="P32:P33" si="3">IF(OR(AND(K32&gt;1,K32&lt;&gt;"-"),AND(L32&gt;1,L32&lt;&gt;"-"),AND(M32&gt;1,M32&lt;&gt;"-"),AND(N32&gt;1,N32&lt;&gt;"-"),AND(O32&gt;1,O32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3029,29 +3029,29 @@
         <v>2024</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:O25">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3097,7 +3097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:O26">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3112,7 +3112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:O27 K29:O29 K31:O31">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -3127,7 +3127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:O28 K30:O30">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3142,7 +3142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:O33">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3157,7 +3157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:O32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3197,13 +3197,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3211,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3222,10 +3222,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3233,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3244,10 +3244,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3255,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3266,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
